--- a/HtmlToExcel/bin/Debug/script範本.xlsx
+++ b/HtmlToExcel/bin/Debug/script範本.xlsx
@@ -1051,7 +1051,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
+      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>

--- a/HtmlToExcel/bin/Debug/script範本.xlsx
+++ b/HtmlToExcel/bin/Debug/script範本.xlsx
@@ -1051,7 +1051,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
+      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
